--- a/data_files/final_dataset/rank by line coverage.xlsx
+++ b/data_files/final_dataset/rank by line coverage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MD NADIM\Documents\NetBeansProjects\FindCochangeByClone\data_files\final_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F110D37-BBFC-481C-971C-2D2D77C458D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76E3A6A-83BF-4128-B5FC-4BEF8F65BAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{087DFBFD-8A4C-451C-8DA5-035A6E68DF2F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
   <si>
     <t xml:space="preserve">Tools </t>
   </si>
@@ -94,13 +94,55 @@
   </si>
   <si>
     <t>Ranks in individual Subject Systems (Average Line Coverage)</t>
+  </si>
+  <si>
+    <t>Ranks in individual Subject Systems (F1 Score)</t>
+  </si>
+  <si>
+    <t>Subject Systems</t>
+  </si>
+  <si>
+    <t>BRLCAD</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Ctags</t>
+  </si>
+  <si>
+    <t>Freecol</t>
+  </si>
+  <si>
+    <t>Jabref</t>
+  </si>
+  <si>
+    <t>jEdit</t>
+  </si>
+  <si>
+    <t>ConQAT</t>
+  </si>
+  <si>
+    <t>DECKARD</t>
+  </si>
+  <si>
+    <t>iClones</t>
+  </si>
+  <si>
+    <t>NiCad</t>
+  </si>
+  <si>
+    <t>SimCAD</t>
+  </si>
+  <si>
+    <t>Simian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +172,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -190,19 +240,12 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,6 +255,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,62 +595,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20053303-CA2B-4CF6-A62D-8651FC723CC4}">
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="28" max="28" width="13" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="U1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
     </row>
     <row r="2" spans="1:29" ht="75">
       <c r="A2" s="3" t="s">
@@ -667,7 +745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1184,17 +1262,28 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="U12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
     </row>
     <row r="13" spans="1:29" ht="75">
       <c r="B13" t="s">
@@ -1206,28 +1295,55 @@
       <c r="K13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="13" t="s">
+      <c r="L13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" s="13" t="s">
+      <c r="R13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1235,11 +1351,11 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10">
-        <v>123517.49</v>
+      <c r="C14" s="19">
+        <v>0.11</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1247,29 +1363,57 @@
       <c r="K14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="14">
-        <v>3</v>
-      </c>
-      <c r="N14" s="14">
-        <v>2</v>
-      </c>
-      <c r="O14" s="14">
-        <v>3</v>
-      </c>
-      <c r="P14" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>4</v>
-      </c>
-      <c r="R14" s="15">
-        <f>SUM(L14:Q14)</f>
+      <c r="L14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="11">
+        <v>3</v>
+      </c>
+      <c r="N14" s="11">
+        <v>2</v>
+      </c>
+      <c r="O14" s="11">
+        <v>3</v>
+      </c>
+      <c r="P14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>4</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" ref="R14:R19" si="3">SUM(L14:Q14)</f>
         <v>15</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="11">
+        <v>1</v>
+      </c>
+      <c r="W14" s="11">
+        <v>4</v>
+      </c>
+      <c r="X14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="12">
+        <f>SUM(V14:AA14)</f>
+        <v>13</v>
+      </c>
+      <c r="AC14" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1277,11 +1421,11 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
-        <v>91678.15</v>
+      <c r="C15" s="19">
+        <v>0.12</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1289,29 +1433,57 @@
       <c r="K15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="14">
-        <v>4</v>
-      </c>
-      <c r="M15" s="14">
-        <v>1</v>
-      </c>
-      <c r="N15" s="14">
-        <v>3</v>
-      </c>
-      <c r="O15" s="14">
-        <v>1</v>
-      </c>
-      <c r="P15" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>6</v>
-      </c>
-      <c r="R15" s="15">
-        <f>SUM(L15:Q15)</f>
+      <c r="L15" s="11">
+        <v>4</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11">
+        <v>3</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>6</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="11">
+        <v>2</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="11">
+        <v>4</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1</v>
+      </c>
+      <c r="X15" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="12">
+        <f>SUM(V15:AA15)</f>
+        <v>13</v>
+      </c>
+      <c r="AC15" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1319,11 +1491,11 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10">
-        <v>147925.98000000001</v>
+      <c r="C16" s="19">
+        <v>0.06</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1331,41 +1503,69 @@
       <c r="K16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="14">
-        <v>6</v>
-      </c>
-      <c r="M16" s="14">
-        <v>4</v>
-      </c>
-      <c r="N16" s="14">
-        <v>1</v>
-      </c>
-      <c r="O16" s="14">
-        <v>4</v>
-      </c>
-      <c r="P16" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>3</v>
-      </c>
-      <c r="R16" s="15">
-        <f>SUM(L16:Q16)</f>
+      <c r="L16" s="11">
+        <v>6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>4</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="11">
+        <v>4</v>
+      </c>
+      <c r="P16" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>3</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="S16" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19">
+      <c r="S16" s="11">
+        <v>3</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V16" s="11">
+        <v>6</v>
+      </c>
+      <c r="W16" s="11">
+        <v>2</v>
+      </c>
+      <c r="X16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="12">
+        <f>SUM(V16:AA16)</f>
+        <v>18</v>
+      </c>
+      <c r="AC16" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
-        <v>127262.87</v>
+      <c r="C17" s="19">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1373,186 +1573,489 @@
       <c r="K17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="14">
-        <v>5</v>
-      </c>
-      <c r="M17" s="14">
-        <v>2</v>
-      </c>
-      <c r="N17" s="14">
-        <v>5</v>
-      </c>
-      <c r="O17" s="14">
-        <v>2</v>
-      </c>
-      <c r="P17" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>5</v>
-      </c>
-      <c r="R17" s="15">
-        <f>SUM(L17:Q17)</f>
+      <c r="L17" s="11">
+        <v>5</v>
+      </c>
+      <c r="M17" s="11">
+        <v>2</v>
+      </c>
+      <c r="N17" s="11">
+        <v>5</v>
+      </c>
+      <c r="O17" s="11">
+        <v>2</v>
+      </c>
+      <c r="P17" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>5</v>
+      </c>
+      <c r="R17" s="12">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="S17" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19">
+      <c r="S17" s="11">
+        <v>4</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="11">
+        <v>5</v>
+      </c>
+      <c r="W17" s="11">
+        <v>3</v>
+      </c>
+      <c r="X17" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="12">
+        <f>SUM(V17:AA17)</f>
+        <v>24</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10">
-        <v>100866.1</v>
+      <c r="C18" s="19">
+        <v>0.09</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="14">
-        <v>3</v>
-      </c>
-      <c r="M18" s="14">
-        <v>5</v>
-      </c>
-      <c r="N18" s="14">
-        <v>4</v>
-      </c>
-      <c r="O18" s="14">
-        <v>5</v>
-      </c>
-      <c r="P18" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>1</v>
-      </c>
-      <c r="R18" s="15">
-        <f>SUM(L18:Q18)</f>
+      <c r="L18" s="11">
+        <v>3</v>
+      </c>
+      <c r="M18" s="11">
+        <v>5</v>
+      </c>
+      <c r="N18" s="11">
+        <v>4</v>
+      </c>
+      <c r="O18" s="11">
+        <v>5</v>
+      </c>
+      <c r="P18" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>1</v>
+      </c>
+      <c r="R18" s="12">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="S18" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19">
+      <c r="S18" s="11">
+        <v>5</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V18" s="11">
+        <v>2</v>
+      </c>
+      <c r="W18" s="11">
+        <v>5</v>
+      </c>
+      <c r="X18" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="12">
+        <f>SUM(V18:AA18)</f>
+        <v>27</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="10">
-        <v>212471.21</v>
+      <c r="C19" s="19">
+        <v>0.05</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>6</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="14">
-        <v>2</v>
-      </c>
-      <c r="M19" s="14">
-        <v>6</v>
-      </c>
-      <c r="N19" s="14">
-        <v>6</v>
-      </c>
-      <c r="O19" s="14">
-        <v>6</v>
-      </c>
-      <c r="P19" s="14">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>2</v>
-      </c>
-      <c r="R19" s="15">
-        <f>SUM(L19:Q19)</f>
+      <c r="L19" s="11">
+        <v>2</v>
+      </c>
+      <c r="M19" s="11">
+        <v>6</v>
+      </c>
+      <c r="N19" s="11">
+        <v>6</v>
+      </c>
+      <c r="O19" s="11">
+        <v>6</v>
+      </c>
+      <c r="P19" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>2</v>
+      </c>
+      <c r="R19" s="12">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="S19" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="2:19">
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="L28" s="6"/>
+      <c r="S19" s="11">
+        <v>6</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="11">
+        <v>3</v>
+      </c>
+      <c r="W19" s="11">
+        <v>6</v>
+      </c>
+      <c r="X19" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="11">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="12">
+        <f>SUM(V19:AA19)</f>
+        <v>31</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z22" s="17"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="19">
+        <v>0.42</v>
+      </c>
+      <c r="U23" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="V23" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="W23" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="X23" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="Y23" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="Z23" s="17"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U24" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="V24" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="W24" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="X24" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="Y24" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="Z24" s="17"/>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="U25" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="V25" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="W25" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="X25" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y25" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="Z25" s="17"/>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="U26" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="V26" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="W26" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="X26" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="Y26" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z26" s="17"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="U27" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="V27" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="W27" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="X27" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="Y27" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="Z27" s="17"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" s="19">
+        <v>0.36</v>
+      </c>
+      <c r="U28" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="V28" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="W28" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X28" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="Y28" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="Z28" s="17"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="K30" s="8"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K14:S19">
-    <sortCondition ref="R13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U14:AC19">
+    <sortCondition ref="AB13"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K12:S12"/>
+    <mergeCell ref="U12:AC12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
